--- a/data/eval.xlsx
+++ b/data/eval.xlsx
@@ -5282,11 +5282,11 @@
   <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C127" sqref="C127"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="36" customHeight="1"/>
